--- a/map.xlsx
+++ b/map.xlsx
@@ -205,7 +205,7 @@
   <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X8" activeCellId="0" sqref="X8"/>
+      <selection pane="topLeft" activeCell="S12" activeCellId="0" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75"/>
@@ -221,10 +221,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" s="0" t="n">
         <v>3</v>
@@ -304,10 +304,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>2</v>
@@ -381,10 +381,10 @@
     </row>
     <row r="3" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>7</v>
@@ -456,18 +456,18 @@
         <v>7</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>7</v>
@@ -539,10 +539,10 @@
         <v>7</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA4" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -622,10 +622,10 @@
         <v>7</v>
       </c>
       <c r="Z5" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA5" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -705,10 +705,10 @@
         <v>7</v>
       </c>
       <c r="Z6" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA6" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -788,10 +788,10 @@
         <v>7</v>
       </c>
       <c r="Z7" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA7" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -871,10 +871,10 @@
         <v>7</v>
       </c>
       <c r="Z8" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA8" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -954,10 +954,10 @@
         <v>7</v>
       </c>
       <c r="Z9" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA9" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1037,10 +1037,10 @@
         <v>7</v>
       </c>
       <c r="Z10" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA10" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1120,10 +1120,10 @@
         <v>7</v>
       </c>
       <c r="Z11" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA11" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1191,10 +1191,10 @@
         <v>3</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X12" s="0" t="n">
         <v>7</v>
@@ -1203,10 +1203,10 @@
         <v>7</v>
       </c>
       <c r="Z12" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA12" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1274,10 +1274,10 @@
         <v>2</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X13" s="0" t="n">
         <v>7</v>
@@ -1286,10 +1286,10 @@
         <v>7</v>
       </c>
       <c r="Z13" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA13" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
